--- a/TeamFile/uml类图.xlsx
+++ b/TeamFile/uml类图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\Documents\workspace\github\TomClock\TeamFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FCE971-3A1F-4A5D-96AD-A49C021FFE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98475D-83D8-4639-8B48-4008EEC941D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>QSqlDatabase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Achievement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,35 +84,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+queryAchievement()           : Achievement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+updateAchievement()         : void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+queryHistory()                     : History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+updateHistory()                  : void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+queryMission()                   : Mission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+updateMission()                 : void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+deleteMission()                  : void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+createMission(Mission m)  : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSqlQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateMissionWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionListWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchievementWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMainWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+deleteMission(int id)           : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+updateMission(Mission *)   : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+updateHistory(History *)     : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+queryMission()                   : Mission *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+queryHistory()                     : History *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-History[] historyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Mission[] missionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Mission curMission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TomClock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+startClock()              : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+pauseClock()           : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+resumeClock()         : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+abortClock()            : void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+tomatoNum   :int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+Achievement[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+queryAchievements()         : Achievements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+updateAchievements(Achievements): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Achievements achievements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Qtimer timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement单个成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制MainWindow等窗口的显示</t>
+  </si>
+  <si>
+    <t>MainWindow mainWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateMissionWindow c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionListWindow m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryWindow h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchievementWindow a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunWindow r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -262,11 +373,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -284,6 +406,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,12 +434,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,6 +517,324 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2889250" y="2146300"/>
           <a:ext cx="6350" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AA9EF2-16A8-C5A2-9540-179CC5769098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7937500" y="1238250"/>
+          <a:ext cx="4591050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC967DC5-F22C-8163-C7BA-8374F47B4435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10509250" y="1257300"/>
+          <a:ext cx="2254250" cy="679450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9AE577-E687-C2D6-1E6D-982E1701F362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12693650" y="1250950"/>
+          <a:ext cx="584200" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BEB043-8A50-5B71-DAD2-869B56461A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13677900" y="1244600"/>
+          <a:ext cx="812800" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41C46D0-8B7E-96F0-0036-34D7E3D0D682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14033500" y="1231900"/>
+          <a:ext cx="2470150" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E5E15A-E726-6564-09B0-5384A063FF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14516100" y="1225550"/>
+          <a:ext cx="3962400" cy="717550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -652,192 +1126,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:L31"/>
+  <dimension ref="A6:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="13" t="s">
+    <row r="6" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="T6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="T7" s="18"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="20"/>
+    </row>
+    <row r="11" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="11" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="I11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="L12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="O12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="24"/>
+      <c r="S12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="V12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="Y12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z12" s="24"/>
+      <c r="AB12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="24"/>
+    </row>
+    <row r="13" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="L13" s="26"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="1"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="1"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="1"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="1"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="I14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="14"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="2"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="2"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="2"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="2"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="4:29" x14ac:dyDescent="0.3">
       <c r="I15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="4"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="4"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="4"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="I16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21" t="s">
-        <v>9</v>
-      </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+        <v>21</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+        <v>22</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="20"/>
       <c r="I22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="I23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="I24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="D23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+        <v>25</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+        <v>38</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D27" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="20"/>
       <c r="I27" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I28" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="38"/>
+      <c r="I30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="1"/>
+      <c r="I31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="T6:V7"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I26:J26"/>

--- a/TeamFile/uml类图.xlsx
+++ b/TeamFile/uml类图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\Documents\workspace\github\TomClock\TeamFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TomClock\TeamFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98475D-83D8-4639-8B48-4008EEC941D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC06D12-7451-407E-B53A-B672A80B0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -408,6 +408,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -434,42 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1128,97 +1108,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
     </row>
     <row r="11" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="I11" s="21" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="I11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="L12" s="23" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="L12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="O12" s="23" t="s">
+      <c r="M12" s="14"/>
+      <c r="O12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="S12" s="23" t="s">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="S12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="V12" s="23" t="s">
+      <c r="T12" s="14"/>
+      <c r="V12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="24"/>
-      <c r="Y12" s="23" t="s">
+      <c r="W12" s="14"/>
+      <c r="Y12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="24"/>
-      <c r="AB12" s="23" t="s">
+      <c r="Z12" s="14"/>
+      <c r="AB12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="24"/>
+      <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="L13" s="26"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="1"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="1"/>
-      <c r="V13" s="26"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="1"/>
-      <c r="Y13" s="26"/>
+      <c r="Y13" s="16"/>
       <c r="Z13" s="1"/>
-      <c r="AB13" s="26"/>
+      <c r="AB13" s="16"/>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="L14" s="27"/>
+      <c r="J14" s="24"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="2"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="17"/>
       <c r="Q14" s="2"/>
-      <c r="S14" s="27"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="2"/>
-      <c r="V14" s="27"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="2"/>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="2"/>
-      <c r="AB14" s="27"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="4:29" x14ac:dyDescent="0.3">
@@ -1226,18 +1205,18 @@
         <v>4</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="L15" s="28"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="4"/>
-      <c r="O15" s="28"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="4"/>
-      <c r="S15" s="28"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="4"/>
-      <c r="V15" s="28"/>
+      <c r="V15" s="18"/>
       <c r="W15" s="4"/>
-      <c r="Y15" s="28"/>
+      <c r="Y15" s="18"/>
       <c r="Z15" s="4"/>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="18"/>
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="4:29" x14ac:dyDescent="0.3">
@@ -1253,12 +1232,12 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7" t="s">
         <v>7</v>
@@ -1266,10 +1245,10 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="12"/>
       <c r="I19" s="8" t="s">
         <v>8</v>
@@ -1291,10 +1270,10 @@
         <v>21</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D22" s="7" t="s">
@@ -1339,10 +1318,10 @@
         <v>38</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="14"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D27" s="8" t="s">
@@ -1363,28 +1342,28 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="38"/>
-      <c r="I30" s="13" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="I30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="1"/>
       <c r="I31" s="10" t="s">
         <v>35</v>
@@ -1395,9 +1374,8 @@
       <c r="D32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="30"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J32" s="4"/>
@@ -1406,91 +1384,79 @@
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="30"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="30"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="30"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="30"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="30"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="30"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="30"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="30"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="30"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="30"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="30"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="30"/>
       <c r="F45" s="2"/>
     </row>
   </sheetData>
